--- a/data-raw/strickland.vine.uniformity.xlsx
+++ b/data-raw/strickland.vine.uniformity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACD8AA1-D93B-4593-97FC-DD241E36056F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="10632" windowHeight="8988"/>
+    <workbookView xWindow="3800" yWindow="2760" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,9 +75,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -114,7 +115,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -220,7 +221,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -362,23 +363,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>5.5</v>
       </c>
@@ -395,7 +396,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>5.5</v>
       </c>
@@ -412,7 +413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2.5</v>
       </c>
@@ -429,7 +430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>5.5</v>
       </c>
@@ -446,7 +447,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2.5</v>
       </c>
@@ -463,7 +464,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3.5</v>
       </c>
@@ -480,7 +481,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4.5</v>
       </c>
@@ -497,7 +498,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4.5</v>
       </c>
@@ -514,7 +515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2.5</v>
       </c>
@@ -531,7 +532,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>4.5</v>
       </c>
@@ -548,7 +549,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -565,7 +566,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>5.5</v>
       </c>
@@ -582,7 +583,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3.5</v>
       </c>
@@ -599,7 +600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3</v>
       </c>
@@ -616,7 +617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5</v>
       </c>
@@ -633,7 +634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4.5</v>
       </c>
@@ -650,7 +651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>3.5</v>
       </c>
@@ -667,7 +668,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.5</v>
       </c>
@@ -684,7 +685,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4.5</v>
       </c>
@@ -701,7 +702,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3.5</v>
       </c>
@@ -718,7 +719,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3</v>
       </c>
@@ -735,7 +736,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>5.5</v>
       </c>
@@ -752,7 +753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>5.5</v>
       </c>
@@ -769,7 +770,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3.5</v>
       </c>
@@ -786,7 +787,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1.5</v>
       </c>
